--- a/public/template_pendamping.xlsx
+++ b/public/template_pendamping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8002C8E4-3EE9-418E-81CA-9CC21A28FC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B0B3F-14CB-4C54-A3A2-D24331772700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{70F2E6E5-9C6B-4F0F-9907-EBF08DA54BF7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="173">
   <si>
     <t xml:space="preserve">Tubagus Kurniawan ST., M.Pd. </t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">SMK PGRI 109 Tangerang </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Reni Nuraeni,ST.,M.Pd </t>
@@ -902,7 +899,7 @@
   <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,186 +911,168 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10102277</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>10261412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10102278</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>20112443</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10105338</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>30401079</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10105626</v>
+        <v>69763291</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50103638</v>
+        <v>20401315</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50100288</v>
+        <v>20404181</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50100289</v>
+        <v>20327603</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50103727</v>
+        <v>20603253</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50105503</v>
+        <v>20613439</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>69899478</v>
+        <v>20522636</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>69763291</v>
+        <v>50308344</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20607873</v>
+        <v>30109724</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20600593</v>
+        <v>30100364</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20607491</v>
+        <v>30311402</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20605114</v>
+        <v>30303620</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20615093</v>
+        <v>20214984</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1101,32 +1080,32 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20622306</v>
+        <v>20246375</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20603253</v>
+        <v>69852822</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20607834</v>
+        <v>10805046</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1134,10 +1113,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20607837</v>
+        <v>20280609</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1145,164 +1124,164 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20613439</v>
+        <v>20258507</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20614509</v>
+        <v>20231741</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20614616</v>
+        <v>20325272</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20622268</v>
+        <v>20209208</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>60729364</v>
+        <v>20212911</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20606250</v>
+        <v>20268221</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20606819</v>
+        <v>30400114</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20607823</v>
+        <v>60401644</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20616038</v>
+        <v>60400380</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20616368</v>
+        <v>20401176</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>69772584</v>
+        <v>20401192</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10703236</v>
+        <v>20328962</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10700287</v>
+        <v>30401713</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>69830643</v>
+        <v>10700287</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10700642</v>
+        <v>10703107</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1310,7 +1289,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10703107</v>
+        <v>10212136</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1321,318 +1300,318 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20400432</v>
+        <v>10211592</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20400446</v>
+        <v>20247197</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20402787</v>
+        <v>20525592</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20402815</v>
+        <v>20525629</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20401176</v>
+        <v>20568697</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20401194</v>
+        <v>20313042</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20401315</v>
+        <v>30102514</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20403275</v>
+        <v>30105521</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20404182</v>
+        <v>20214822</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20400449</v>
+        <v>20229659</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20411873</v>
+        <v>20219159</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20402089</v>
+        <v>20223114</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20402093</v>
+        <v>20222170</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20402133</v>
+        <v>20262128</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20407419</v>
+        <v>10807613</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20402840</v>
+        <v>10807614</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20409725</v>
+        <v>30105230</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20401137</v>
+        <v>10400262</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20401192</v>
+        <v>10404309</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20401304</v>
+        <v>69934151</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20403285</v>
+        <v>20279827</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20404181</v>
+        <v>20330334</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20101501</v>
+        <v>20542509</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20101648</v>
+        <v>30401089</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20100166</v>
+        <v>30407767</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20100294</v>
+        <v>40401540</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20103659</v>
+        <v>40403566</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20103792</v>
+        <v>69955278</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>40500181</v>
+        <v>20315656</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
@@ -1640,10 +1619,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>40501682</v>
+        <v>20330119</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -1651,10 +1630,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>40500380</v>
+        <v>20360301</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -1662,10 +1641,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>40501858</v>
+        <v>40601491</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -1673,76 +1652,76 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>40501064</v>
+        <v>20228539</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10503769</v>
+        <v>20200607</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10505934</v>
+        <v>20244687</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20252207</v>
+        <v>20523758</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20214818</v>
+        <v>20566563</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20214824</v>
+        <v>20517766</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20206225</v>
+        <v>50204465</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1750,131 +1729,131 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20227940</v>
+        <v>20217795</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20228539</v>
+        <v>30311402</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20255776</v>
+        <v>30405247</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20228510</v>
+        <v>50301399</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20267644</v>
+        <v>20200606</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20279927</v>
+        <v>20252398</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20247201</v>
+        <v>20224614</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20280609</v>
+        <v>20521707</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>69882371</v>
+        <v>20523757</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20200606</v>
+        <v>20511015</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20200607</v>
+        <v>20533813</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20231416</v>
+        <v>20252207</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
@@ -1882,21 +1861,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20232465</v>
+        <v>20255776</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20232491</v>
+        <v>20252030</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -1904,252 +1883,252 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>69955278</v>
+        <v>20253861</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>69967704</v>
+        <v>20209201</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20252030</v>
+        <v>20209202</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20252208</v>
+        <v>20237434</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20252398</v>
+        <v>20244755</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20275815</v>
+        <v>20352230</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>69727436</v>
+        <v>20341574</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>69856657</v>
+        <v>69913857</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20214797</v>
+        <v>20507704</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20214822</v>
+        <v>20534398</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20214984</v>
+        <v>30401714</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20244687</v>
+        <v>20214818</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20244688</v>
+        <v>20247201</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20246375</v>
+        <v>20532182</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20268734</v>
+        <v>50204505</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>69752443</v>
+        <v>69856657</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>69852822</v>
+        <v>20303942</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20209201</v>
+        <v>20300693</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20209202</v>
+        <v>20321425</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>20209203</v>
+        <v>20607823</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>20209208</v>
+        <v>20269696</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>20253861</v>
+        <v>20328458</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>20262128</v>
+        <v>20517742</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -2157,43 +2136,43 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>20215998</v>
+        <v>20607873</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>20216001</v>
+        <v>20606250</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>20216003</v>
+        <v>20537286</v>
       </c>
       <c r="B116" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>20216007</v>
+        <v>30405265</v>
       </c>
       <c r="B117" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -2201,131 +2180,131 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20237410</v>
+        <v>20306803</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20217795</v>
+        <v>20517762</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>20217802</v>
+        <v>30402596</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>20217803</v>
+        <v>69968899</v>
       </c>
       <c r="B121" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>20237408</v>
+        <v>20339029</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>20237434</v>
+        <v>20339040</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>20237465</v>
+        <v>20232465</v>
       </c>
       <c r="B124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>20258507</v>
+        <v>20314863</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>20276402</v>
+        <v>20330038</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>69734356</v>
+        <v>30105519</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>69934151</v>
+        <v>20223110</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>69946696</v>
+        <v>20252208</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
@@ -2333,351 +2312,351 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>20212908</v>
+        <v>20237465</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>20212911</v>
+        <v>20328152</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>20212918</v>
+        <v>20511947</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>20212921</v>
+        <v>20227940</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>20246369</v>
+        <v>20228510</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>20279827</v>
+        <v>20279927</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>20247197</v>
+        <v>20329859</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20247198</v>
+        <v>20223131</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20268221</v>
+        <v>20253779</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C138" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>20217366</v>
+        <v>20574699</v>
       </c>
       <c r="B139" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>20217367</v>
+        <v>30107328</v>
       </c>
       <c r="B140" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>20229659</v>
+        <v>20217366</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>69948040</v>
+        <v>20307716</v>
       </c>
       <c r="B142" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>20217038</v>
+        <v>20500411</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>69877402</v>
+        <v>20517758</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>20221568</v>
+        <v>20600593</v>
       </c>
       <c r="B145" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>69756184</v>
+        <v>20615093</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>20208396</v>
+        <v>20101501</v>
       </c>
       <c r="B147" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>20235643</v>
+        <v>30203491</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>20251887</v>
+        <v>20276402</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>20210716</v>
+        <v>20362773</v>
       </c>
       <c r="B150" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>20244755</v>
+        <v>20528658</v>
       </c>
       <c r="B151" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>20219144</v>
+        <v>20533814</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C152" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>20219145</v>
+        <v>10814657</v>
       </c>
       <c r="B153" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>20219159</v>
+        <v>10807229</v>
       </c>
       <c r="B154" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>60728389</v>
+        <v>10211075</v>
       </c>
       <c r="B155" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>20223110</v>
+        <v>10211227</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>20223114</v>
+        <v>50103727</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>20223131</v>
+        <v>20504482</v>
       </c>
       <c r="B158" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>20231741</v>
+        <v>20541264</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>20253779</v>
+        <v>20517761</v>
       </c>
       <c r="B160" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>20269696</v>
+        <v>20246369</v>
       </c>
       <c r="B161" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
@@ -2685,1110 +2664,1110 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>20224136</v>
+        <v>20210716</v>
       </c>
       <c r="B162" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>20238571</v>
+        <v>20323505</v>
       </c>
       <c r="B163" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C163" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>20222170</v>
+        <v>69754002</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>20224614</v>
+        <v>50100288</v>
       </c>
       <c r="B165" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>20253319</v>
+        <v>50100289</v>
       </c>
       <c r="B166" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>20303942</v>
+        <v>50305267</v>
       </c>
       <c r="B167" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>20301899</v>
+        <v>20402089</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>20302124</v>
+        <v>20402093</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>20330454</v>
+        <v>20312897</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>20361045</v>
+        <v>20313046</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>20314863</v>
+        <v>20214824</v>
       </c>
       <c r="B172" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>20314900</v>
+        <v>60728389</v>
       </c>
       <c r="B173" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>20330038</v>
+        <v>20326427</v>
       </c>
       <c r="B174" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>20308417</v>
+        <v>20508448</v>
       </c>
       <c r="B175" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>20308436</v>
+        <v>10505934</v>
       </c>
       <c r="B176" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>20326425</v>
+        <v>20534784</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>20326427</v>
+        <v>69880742</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>20360275</v>
+        <v>10260919</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>69968899</v>
+        <v>10260608</v>
       </c>
       <c r="B180" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>20300690</v>
+        <v>10211061</v>
       </c>
       <c r="B181" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>20300693</v>
+        <v>10211071</v>
       </c>
       <c r="B182" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>20339066</v>
+        <v>20221568</v>
       </c>
       <c r="B183" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>69851465</v>
+        <v>11000382</v>
       </c>
       <c r="B184" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>20319296</v>
+        <v>11003119</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>20341390</v>
+        <v>69882371</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>60725432</v>
+        <v>20312177</v>
       </c>
       <c r="B187" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>69756197</v>
+        <v>20328116</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>20360896</v>
+        <v>20549504</v>
       </c>
       <c r="B189" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>20361510</v>
+        <v>20402787</v>
       </c>
       <c r="B190" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>20331126</v>
+        <v>20402815</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>20341442</v>
+        <v>20216001</v>
       </c>
       <c r="B192" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>20312177</v>
+        <v>20328126</v>
       </c>
       <c r="B193" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>69880817</v>
+        <v>20614616</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>20330307</v>
+        <v>20209203</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>20330334</v>
+        <v>50205616</v>
       </c>
       <c r="B196" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>20321847</v>
+        <v>10496872</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>20341010</v>
+        <v>20267644</v>
       </c>
       <c r="B198" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>20341017</v>
+        <v>20212918</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C199" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>20309531</v>
+        <v>20238571</v>
       </c>
       <c r="B200" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>20317482</v>
+        <v>10259915</v>
       </c>
       <c r="B201" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>20352397</v>
+        <v>20503434</v>
       </c>
       <c r="B202" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>20307703</v>
+        <v>10304893</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>20307715</v>
+        <v>10308093</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>20307716</v>
+        <v>10260807</v>
       </c>
       <c r="B205" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>20338281</v>
+        <v>20206225</v>
       </c>
       <c r="B206" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C206" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>69947441</v>
+        <v>20554606</v>
       </c>
       <c r="B207" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>20339029</v>
+        <v>50220438</v>
       </c>
       <c r="B208" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>20339040</v>
+        <v>50205626</v>
       </c>
       <c r="B209" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>20352230</v>
+        <v>20268734</v>
       </c>
       <c r="B210" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C210" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>20323505</v>
+        <v>20237408</v>
       </c>
       <c r="B211" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C211" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>20324226</v>
+        <v>20247198</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C212" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>20315656</v>
+        <v>69965401</v>
       </c>
       <c r="B213" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C213" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>20330118</v>
+        <v>50103638</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>20330119</v>
+        <v>69967704</v>
       </c>
       <c r="B215" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>20360301</v>
+        <v>69752443</v>
       </c>
       <c r="B216" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>69756191</v>
+        <v>20302124</v>
       </c>
       <c r="B217" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>20320251</v>
+        <v>20253319</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>20339165</v>
+        <v>20361045</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>20341206</v>
+        <v>20515438</v>
       </c>
       <c r="B220" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>20312897</v>
+        <v>20547845</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>20313042</v>
+        <v>20329527</v>
       </c>
       <c r="B222" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C222" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>20313046</v>
+        <v>20500424</v>
       </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>69767776</v>
+        <v>20554359</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C224" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>20310436</v>
+        <v>10601343</v>
       </c>
       <c r="B225" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>20310439</v>
+        <v>10646355</v>
       </c>
       <c r="B226" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C226" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>20310441</v>
+        <v>20217367</v>
       </c>
       <c r="B227" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>20325272</v>
+        <v>20327586</v>
       </c>
       <c r="B228" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>20321425</v>
+        <v>20208396</v>
       </c>
       <c r="B229" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C229" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>20340348</v>
+        <v>20251887</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C230" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>20311044</v>
+        <v>20584049</v>
       </c>
       <c r="B231" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C231" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>20360536</v>
+        <v>69990904</v>
       </c>
       <c r="B232" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C232" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>20306803</v>
+        <v>20212908</v>
       </c>
       <c r="B233" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>20362773</v>
+        <v>20219144</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C234" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>20327586</v>
+        <v>20224136</v>
       </c>
       <c r="B235" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C235" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>20327603</v>
+        <v>20310439</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>20329527</v>
+        <v>20403275</v>
       </c>
       <c r="B237" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>20328458</v>
+        <v>20404182</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C238" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>20328460</v>
+        <v>20310441</v>
       </c>
       <c r="B239" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>20328945</v>
+        <v>20519278</v>
       </c>
       <c r="B240" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>20328962</v>
+        <v>20622268</v>
       </c>
       <c r="B241" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>20328971</v>
+        <v>20616368</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>20328981</v>
+        <v>20320251</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C243" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>20360363</v>
+        <v>30103487</v>
       </c>
       <c r="B244" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>20328108</v>
+        <v>20401194</v>
       </c>
       <c r="B245" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>20328116</v>
+        <v>20307703</v>
       </c>
       <c r="B246" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>20328126</v>
+        <v>20339165</v>
       </c>
       <c r="B247" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20328132</v>
+        <v>20507700</v>
       </c>
       <c r="B248" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>20328152</v>
+        <v>20616038</v>
       </c>
       <c r="B249" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>20328153</v>
+        <v>20400432</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>20329859</v>
+        <v>20400446</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>20341574</v>
+        <v>20307715</v>
       </c>
       <c r="B252" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="C252" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>20324227</v>
+        <v>20607491</v>
       </c>
       <c r="B253" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C253" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>20325252</v>
+        <v>20614509</v>
       </c>
       <c r="B254" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>20525592</v>
+        <v>69772584</v>
       </c>
       <c r="B255" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>20525627</v>
+        <v>20103792</v>
       </c>
       <c r="B256" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>20525629</v>
+        <v>10503769</v>
       </c>
       <c r="B257" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>20584049</v>
+        <v>30304604</v>
       </c>
       <c r="B258" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>20504482</v>
+        <v>20360275</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>20541264</v>
+        <v>20501715</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>69913857</v>
+        <v>69759278</v>
       </c>
       <c r="B261" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C261" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>20521707</v>
+        <v>10105338</v>
       </c>
       <c r="B262" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -3796,21 +3775,21 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20554341</v>
+        <v>20534783</v>
       </c>
       <c r="B263" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20500411</v>
+        <v>20532198</v>
       </c>
       <c r="B264" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -3818,175 +3797,175 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20500423</v>
+        <v>50304991</v>
       </c>
       <c r="B265" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20500424</v>
+        <v>20309531</v>
       </c>
       <c r="B266" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C266" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>20554359</v>
+        <v>20328132</v>
       </c>
       <c r="B267" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C267" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>20523754</v>
+        <v>69773566</v>
       </c>
       <c r="B268" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C268" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20523757</v>
+        <v>20314900</v>
       </c>
       <c r="B269" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C269" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20523758</v>
+        <v>20326425</v>
       </c>
       <c r="B270" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>20523760</v>
+        <v>20548745</v>
       </c>
       <c r="B271" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C271" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>20548802</v>
+        <v>20324227</v>
       </c>
       <c r="B272" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C272" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20549236</v>
+        <v>20325252</v>
       </c>
       <c r="B273" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20566563</v>
+        <v>20517759</v>
       </c>
       <c r="B274" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20503434</v>
+        <v>20534176</v>
       </c>
       <c r="B275" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C275" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20554606</v>
+        <v>20103659</v>
       </c>
       <c r="B276" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>20511947</v>
+        <v>69880817</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C277" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20574699</v>
+        <v>20340348</v>
       </c>
       <c r="B278" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C278" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>20506248</v>
+        <v>20328945</v>
       </c>
       <c r="B279" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C279" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20506249</v>
+        <v>20401137</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C280" t="s">
         <v>35</v>
@@ -3994,285 +3973,285 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20549029</v>
+        <v>20401304</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20584033</v>
+        <v>20330118</v>
       </c>
       <c r="B282" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C282" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>20507700</v>
+        <v>20328971</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>20507704</v>
+        <v>20217802</v>
       </c>
       <c r="B284" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C284" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>20517742</v>
+        <v>20341390</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>20517758</v>
+        <v>40314105</v>
       </c>
       <c r="B286" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>20517759</v>
+        <v>40103207</v>
       </c>
       <c r="B287" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C287" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>20517761</v>
+        <v>20217803</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C288" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>20517762</v>
+        <v>69734356</v>
       </c>
       <c r="B289" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20517766</v>
+        <v>20219145</v>
       </c>
       <c r="B290" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>20553265</v>
+        <v>11000439</v>
       </c>
       <c r="B291" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C291" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>20554381</v>
+        <v>20217038</v>
       </c>
       <c r="B292" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>20568697</v>
+        <v>69849370</v>
       </c>
       <c r="B293" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>69930561</v>
+        <v>60726235</v>
       </c>
       <c r="B294" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C294" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>20549504</v>
+        <v>69761931</v>
       </c>
       <c r="B295" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C295" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>20538340</v>
+        <v>20622306</v>
       </c>
       <c r="B296" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>20539814</v>
+        <v>20231416</v>
       </c>
       <c r="B297" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>20508448</v>
+        <v>20232491</v>
       </c>
       <c r="B298" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>20511013</v>
+        <v>20275815</v>
       </c>
       <c r="B299" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>20511015</v>
+        <v>69877402</v>
       </c>
       <c r="B300" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>20519149</v>
+        <v>20235643</v>
       </c>
       <c r="B301" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>20519278</v>
+        <v>20301899</v>
       </c>
       <c r="B302" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>69827649</v>
+        <v>20330454</v>
       </c>
       <c r="B303" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20528658</v>
+        <v>20321847</v>
       </c>
       <c r="B304" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>20501715</v>
+        <v>30304270</v>
       </c>
       <c r="B305" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>20501720</v>
+        <v>30304520</v>
       </c>
       <c r="B306" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
@@ -4280,439 +4259,439 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>20540110</v>
+        <v>20214797</v>
       </c>
       <c r="B307" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C307" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>20570902</v>
+        <v>20341017</v>
       </c>
       <c r="B308" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C308" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20522636</v>
+        <v>20584033</v>
       </c>
       <c r="B309" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C309" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>20529957</v>
+        <v>20546877</v>
       </c>
       <c r="B310" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>20542509</v>
+        <v>20244688</v>
       </c>
       <c r="B311" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C311" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>20505033</v>
+        <v>20317482</v>
       </c>
       <c r="B312" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C312" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>20515438</v>
+        <v>20352397</v>
       </c>
       <c r="B313" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C313" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>20537286</v>
+        <v>10804184</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C314" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>20547845</v>
+        <v>69830643</v>
       </c>
       <c r="B315" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C315" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>20548745</v>
+        <v>20319296</v>
       </c>
       <c r="B316" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>20554703</v>
+        <v>10814962</v>
       </c>
       <c r="B317" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="C317" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>20534398</v>
+        <v>60725432</v>
       </c>
       <c r="B318" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C318" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>20534176</v>
+        <v>69756197</v>
       </c>
       <c r="B319" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C319" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>20533643</v>
+        <v>20311044</v>
       </c>
       <c r="B320" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C320" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>20533813</v>
+        <v>40310796</v>
       </c>
       <c r="B321" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>20533814</v>
+        <v>20360536</v>
       </c>
       <c r="B322" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C322" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>20533816</v>
+        <v>20540110</v>
       </c>
       <c r="B323" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C323" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>20534783</v>
+        <v>30304269</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>20534784</v>
+        <v>40601490</v>
       </c>
       <c r="B325" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C325" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>20546877</v>
+        <v>30401508</v>
       </c>
       <c r="B326" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="C326" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>20532182</v>
+        <v>30401516</v>
       </c>
       <c r="B327" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="C327" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>20532198</v>
+        <v>30409918</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>30109301</v>
+        <v>10203547</v>
       </c>
       <c r="B329" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>30103487</v>
+        <v>30304268</v>
       </c>
       <c r="B330" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C330" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>30108420</v>
+        <v>10303507</v>
       </c>
       <c r="B331" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C331" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>30109724</v>
+        <v>10303913</v>
       </c>
       <c r="B332" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C332" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>30100364</v>
+        <v>10220602</v>
       </c>
       <c r="B333" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C333" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>30102474</v>
+        <v>69767776</v>
       </c>
       <c r="B334" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C334" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>30102514</v>
+        <v>20554703</v>
       </c>
       <c r="B335" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C335" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>30107328</v>
+        <v>30304286</v>
       </c>
       <c r="B336" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C336" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>30105216</v>
+        <v>50220769</v>
       </c>
       <c r="B337" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C337" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>30105230</v>
+        <v>50205416</v>
       </c>
       <c r="B338" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C338" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>30107398</v>
+        <v>69900388</v>
       </c>
       <c r="B339" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>30105519</v>
+        <v>20300690</v>
       </c>
       <c r="B340" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>30105521</v>
+        <v>50304779</v>
       </c>
       <c r="B341" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C341" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>30311402</v>
+        <v>50304778</v>
       </c>
       <c r="B342" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C342" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>30304269</v>
+        <v>40103059</v>
       </c>
       <c r="B343" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C343" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>30311402</v>
+        <v>10214028</v>
       </c>
       <c r="B344" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C344" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>30304604</v>
+        <v>20500423</v>
       </c>
       <c r="B345" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C345" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>30304268</v>
+        <v>10494574</v>
       </c>
       <c r="B346" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C346" t="s">
         <v>3</v>
@@ -4720,131 +4699,131 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>30304270</v>
+        <v>10402106</v>
       </c>
       <c r="B347" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>30304286</v>
+        <v>10259665</v>
       </c>
       <c r="B348" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C348" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>30304520</v>
+        <v>20409725</v>
       </c>
       <c r="B349" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>30203491</v>
+        <v>20519149</v>
       </c>
       <c r="B350" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C350" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>30400114</v>
+        <v>69827649</v>
       </c>
       <c r="B351" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C351" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>30405265</v>
+        <v>20533816</v>
       </c>
       <c r="B352" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C352" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>30402083</v>
+        <v>10211092</v>
       </c>
       <c r="B353" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C353" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>30401508</v>
+        <v>20523754</v>
       </c>
       <c r="B354" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C354" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>30401513</v>
+        <v>10494319</v>
       </c>
       <c r="B355" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C355" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>30401516</v>
+        <v>10495604</v>
       </c>
       <c r="B356" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C356" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>30409918</v>
+        <v>10211253</v>
       </c>
       <c r="B357" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>30401782</v>
+        <v>20308417</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -4852,142 +4831,142 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>30401089</v>
+        <v>20549236</v>
       </c>
       <c r="B359" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C359" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>30407767</v>
+        <v>20554381</v>
       </c>
       <c r="B360" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C360" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>30402596</v>
+        <v>20529957</v>
       </c>
       <c r="B361" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C361" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>30405247</v>
+        <v>69727436</v>
       </c>
       <c r="B362" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C362" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>30401713</v>
+        <v>20308436</v>
       </c>
       <c r="B363" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C363" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>30401714</v>
+        <v>20331126</v>
       </c>
       <c r="B364" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="C364" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>11000382</v>
+        <v>20310436</v>
       </c>
       <c r="B365" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C365" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>11003119</v>
+        <v>69946696</v>
       </c>
       <c r="B366" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C366" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>11000439</v>
+        <v>69948040</v>
       </c>
       <c r="B367" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C367" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>10812426</v>
+        <v>20341442</v>
       </c>
       <c r="B368" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C368" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>69754002</v>
+        <v>10210766</v>
       </c>
       <c r="B369" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C369" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>10805046</v>
+        <v>20605114</v>
       </c>
       <c r="B370" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C370" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>10814657</v>
+        <v>10812426</v>
       </c>
       <c r="B371" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="C371" t="s">
         <v>3</v>
@@ -4995,76 +4974,76 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>10804184</v>
+        <v>10259305</v>
       </c>
       <c r="B372" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>10807229</v>
+        <v>50219548</v>
       </c>
       <c r="B373" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C373" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>10807613</v>
+        <v>50203317</v>
       </c>
       <c r="B374" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C374" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>10807614</v>
+        <v>40307845</v>
       </c>
       <c r="B375" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C375" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>69862566</v>
+        <v>20606819</v>
       </c>
       <c r="B376" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>10814962</v>
+        <v>40500380</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C377" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>60105436</v>
+        <v>40501858</v>
       </c>
       <c r="B378" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C378" t="s">
         <v>32</v>
@@ -5072,10 +5051,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>60101983</v>
+        <v>40501064</v>
       </c>
       <c r="B379" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C379" t="s">
         <v>32</v>
@@ -5083,175 +5062,175 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>60102779</v>
+        <v>20607834</v>
       </c>
       <c r="B380" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C380" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>69849370</v>
+        <v>20100294</v>
       </c>
       <c r="B381" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C381" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>50220769</v>
+        <v>30107398</v>
       </c>
       <c r="B382" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="C382" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>69990904</v>
+        <v>10300825</v>
       </c>
       <c r="B383" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C383" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>50220438</v>
+        <v>20100166</v>
       </c>
       <c r="B384" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C384" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>50204716</v>
+        <v>20328981</v>
       </c>
       <c r="B385" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C385" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>50219548</v>
+        <v>10310877</v>
       </c>
       <c r="B386" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C386" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>50304779</v>
+        <v>20607837</v>
       </c>
       <c r="B387" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>69775283</v>
+        <v>60729364</v>
       </c>
       <c r="B388" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C388" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>50308344</v>
+        <v>69756184</v>
       </c>
       <c r="B389" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C389" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>50304991</v>
+        <v>10205190</v>
       </c>
       <c r="B390" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>50305267</v>
+        <v>20533643</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C391" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>50205626</v>
+        <v>10403923</v>
       </c>
       <c r="B392" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C392" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>50204465</v>
+        <v>10494620</v>
       </c>
       <c r="B393" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>50304992</v>
+        <v>10205204</v>
       </c>
       <c r="B394" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C394" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>69888491</v>
+        <v>20328108</v>
       </c>
       <c r="B395" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -5259,705 +5238,714 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>50205616</v>
+        <v>20538340</v>
       </c>
       <c r="B396" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C396" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>50205416</v>
+        <v>20539814</v>
       </c>
       <c r="B397" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C397" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>50203317</v>
+        <v>30109301</v>
       </c>
       <c r="B398" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C398" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>50204505</v>
+        <v>20403285</v>
       </c>
       <c r="B399" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C399" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>50301399</v>
+        <v>20212921</v>
       </c>
       <c r="B400" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C400" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>50304778</v>
+        <v>20360363</v>
       </c>
       <c r="B401" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C401" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>50302299</v>
+        <v>30402083</v>
       </c>
       <c r="B402" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C402" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>60300189</v>
+        <v>40500181</v>
       </c>
       <c r="B403" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C403" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>60301059</v>
+        <v>40501682</v>
       </c>
       <c r="B404" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C404" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>60401644</v>
+        <v>30401513</v>
       </c>
       <c r="B405" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="C405" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>60400380</v>
+        <v>10220307</v>
       </c>
       <c r="B406" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="C406" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>30303620</v>
+        <v>10105626</v>
       </c>
       <c r="B407" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="C407" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>10261412</v>
+        <v>20324226</v>
       </c>
       <c r="B408" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>20112443</v>
+        <v>10603684</v>
       </c>
       <c r="B409" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>30401079</v>
+        <v>10609726</v>
       </c>
       <c r="B410" t="s">
-        <v>169</v>
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>10494574</v>
+        <v>20341010</v>
       </c>
       <c r="B411" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C411" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>69773566</v>
+        <v>20338281</v>
       </c>
       <c r="B412" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C412" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>10402106</v>
+        <v>50204716</v>
       </c>
       <c r="B413" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C413" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>10400262</v>
+        <v>40604625</v>
       </c>
       <c r="B414" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C414" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>69965401</v>
+        <v>20400449</v>
       </c>
       <c r="B415" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C415" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>10494319</v>
+        <v>20411873</v>
       </c>
       <c r="B416" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="C416" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>10496872</v>
+        <v>69947441</v>
       </c>
       <c r="B417" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C417" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>10404309</v>
+        <v>20506249</v>
       </c>
       <c r="B418" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C418" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>10403923</v>
+        <v>50105503</v>
       </c>
       <c r="B419" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C419" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>10494620</v>
+        <v>69899478</v>
       </c>
       <c r="B420" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C420" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>10495604</v>
+        <v>20549029</v>
       </c>
       <c r="B421" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C421" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>40601490</v>
+        <v>30401782</v>
       </c>
       <c r="B422" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C422" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>40601491</v>
+        <v>20511013</v>
       </c>
       <c r="B423" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C423" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>40604625</v>
+        <v>60300189</v>
       </c>
       <c r="B424" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C424" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>60726235</v>
+        <v>60301059</v>
       </c>
       <c r="B425" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C425" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>40310796</v>
+        <v>20330307</v>
       </c>
       <c r="B426" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C426" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>40314105</v>
+        <v>69775283</v>
       </c>
       <c r="B427" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C427" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>69761931</v>
+        <v>50302299</v>
       </c>
       <c r="B428" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C428" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>40307845</v>
+        <v>20339066</v>
       </c>
       <c r="B429" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C429" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>40300604</v>
+        <v>69851465</v>
       </c>
       <c r="B430" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C430" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>40203629</v>
+        <v>20501720</v>
       </c>
       <c r="B431" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C431" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>40401540</v>
+        <v>69862566</v>
       </c>
       <c r="B432" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C432" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>40403566</v>
+        <v>20216003</v>
       </c>
       <c r="B433" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C433" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>40103059</v>
+        <v>20570902</v>
       </c>
       <c r="B434" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C434" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>40103207</v>
+        <v>50304992</v>
       </c>
       <c r="B435" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C435" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>10304893</v>
+        <v>69888491</v>
       </c>
       <c r="B436" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C436" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>10310877</v>
+        <v>20237410</v>
       </c>
       <c r="B437" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C437" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>10308093</v>
+        <v>20360896</v>
       </c>
       <c r="B438" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C438" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>10303507</v>
+        <v>20361510</v>
       </c>
       <c r="B439" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C439" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>10303913</v>
+        <v>20341206</v>
       </c>
       <c r="B440" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C440" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>10300825</v>
+        <v>20328460</v>
       </c>
       <c r="B441" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C441" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>10601343</v>
+        <v>20523760</v>
       </c>
       <c r="B442" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C442" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>10646355</v>
+        <v>20548802</v>
       </c>
       <c r="B443" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C443" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>69880742</v>
+        <v>20506248</v>
       </c>
       <c r="B444" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C444" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>10603684</v>
+        <v>20505033</v>
       </c>
       <c r="B445" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C445" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>10609726</v>
+        <v>30105216</v>
       </c>
       <c r="B446" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C446" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>10260919</v>
+        <v>20402840</v>
       </c>
       <c r="B447" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C447" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>10203547</v>
+        <v>69756191</v>
       </c>
       <c r="B448" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="C448" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>10220602</v>
+        <v>30102474</v>
       </c>
       <c r="B449" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C449" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>10214027</v>
+        <v>60102779</v>
       </c>
       <c r="B450" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C450" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>10214028</v>
+        <v>20215998</v>
       </c>
       <c r="B451" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C451" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>10259665</v>
+        <v>20553265</v>
       </c>
       <c r="B452" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C452" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>10259915</v>
+        <v>69930561</v>
       </c>
       <c r="B453" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C453" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>10260608</v>
+        <v>10102277</v>
       </c>
       <c r="B454" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C454" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>10260807</v>
+        <v>20216007</v>
       </c>
       <c r="B455" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C455" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>10261695</v>
+        <v>20554341</v>
       </c>
       <c r="B456" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C456" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>69759278</v>
+        <v>30108420</v>
       </c>
       <c r="B457" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C457" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>69900388</v>
+        <v>10102278</v>
       </c>
       <c r="B458" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="C458" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>10210766</v>
+        <v>10700642</v>
       </c>
       <c r="B459" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>10211061</v>
+        <v>10214027</v>
       </c>
       <c r="B460" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C460" t="s">
         <v>3</v>
@@ -5965,10 +5953,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>10211071</v>
+        <v>10261695</v>
       </c>
       <c r="B461" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C461" t="s">
         <v>3</v>
@@ -5976,115 +5964,118 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>10211075</v>
+        <v>10703236</v>
       </c>
       <c r="B462" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C462" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>10211092</v>
+        <v>20101648</v>
       </c>
       <c r="B463" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C463" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>10211227</v>
+        <v>20328153</v>
       </c>
       <c r="B464" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C464" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>10211253</v>
+        <v>20402133</v>
       </c>
       <c r="B465" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C465" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>10259305</v>
+        <v>20407419</v>
       </c>
       <c r="B466" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C466" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>10212136</v>
+        <v>20525627</v>
       </c>
       <c r="B467" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C467" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>10211592</v>
+        <v>40203629</v>
       </c>
       <c r="B468" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C468" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>10205204</v>
+        <v>60105436</v>
       </c>
       <c r="B469" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C469" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>10205190</v>
+        <v>60101983</v>
       </c>
       <c r="B470" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C470" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>10220307</v>
+        <v>40300604</v>
       </c>
       <c r="B471" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C471" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C471">
+    <sortCondition ref="B2:B471"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template_pendamping.xlsx
+++ b/public/template_pendamping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B0B3F-14CB-4C54-A3A2-D24331772700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905F052-6E9A-4EFE-B52D-9FD86491C464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{70F2E6E5-9C6B-4F0F-9907-EBF08DA54BF7}"/>
   </bookViews>
@@ -25,41 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="184">
   <si>
     <t xml:space="preserve">Tubagus Kurniawan ST., M.Pd. </t>
   </si>
   <si>
-    <t xml:space="preserve">BBPPMPV BMTI Bandung </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tukiman. ST </t>
   </si>
   <si>
-    <t xml:space="preserve">BBPPMPV BBL Medan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fandi Dahlan, S.Pd, MT </t>
   </si>
   <si>
-    <t xml:space="preserve">BBPPMPV BOE Malang </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarmulia Sinaga,ST.,MT. </t>
   </si>
   <si>
     <t xml:space="preserve">Drs. Sutadi, MM </t>
   </si>
   <si>
-    <t xml:space="preserve">Cabang Dinas Pendidikan Wilayah X Provinsi Jawa Barat </t>
-  </si>
-  <si>
     <t xml:space="preserve">Drs. Herry Sudjendro, M.T </t>
   </si>
   <si>
-    <t xml:space="preserve">Praktisi/STTAR Malang </t>
-  </si>
-  <si>
     <t xml:space="preserve">Drs. Gunawan,M.Si </t>
   </si>
   <si>
@@ -69,481 +54,529 @@
     <t xml:space="preserve">Agus Salim </t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Yanto Permana, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Ajun, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eskawati Musyarofah Bunyamin, S.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson Manurung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Dardiani, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agus Sambodo, M.Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profillia Putri, S Si, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reni Nuraeni,St.,M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etty Sulistyawati S.Pd.MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Musana, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edy Rismunandar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurul Hayati, S.TI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Syahril Is, Mt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eru Wibowo, S.Sn., M.Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyudin, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakti Gunawan, S.Pd, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iwan Abdul Rahman, M.Pd., MM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Muji Rahayu, M.Ds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asrizal Amir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Rawung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi Yunanto, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sito Mardowo, S.Sn, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Kartiman, M.Sn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wismanu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suwadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moch. Widiyanto, S.Pd., MT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heru Subagiyo, S.Sn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandi Abdullah </t>
+  </si>
+  <si>
+    <t>SMKN 3 Yogyakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramelan, S.Pd, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasriadi Masalam, Ph.D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santia Gardenia Widyaswari, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. M. Anas, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R. Diyan K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Kuswara, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Sodikin Susaat, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drh. Udi Pramono </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Amos Buranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Nanang Yusuf Nurdin, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anita Widiawati, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Muhammad Fatori, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ir. Widi Agustin, M.P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. Dwijanti,M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Agus Salim, M.Si. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. Wisnuwati.M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujiyono, SP, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sumidi, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Retna Irrawati M. Eng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deden Suryanto, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrean Hartanu Wibowo, Sst.Par </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Tutik Nuryati, M.P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Sueb, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Rochana, M. Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arief Susanto, S.Pd., Mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedy Hermawan, M. Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tresi Tiara Intania Fatimah, SE., M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supardi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supriyadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Frans Masse Pakpahan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hukmiah Arif, S.Kom, M.T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iis Nurharyani, M.M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Catur Sunariadi, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destilawaty, S.Pi, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanang Ahdiat, SP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Yaya Zakaria Latif, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Hadi Prasetyo, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choesen Wawan Darmawan, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Agus Wahyudi, M.Eng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Winih Wicaksono, M.T. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imran, S. Kom., MT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Mansyur Syah, MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Wiyoto, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. Endang Sadbudhy Rahayu, MBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Syaiful Karim, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gita Mahardika Pamuji, Sst.Par., M.Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Syarief, S.Pd., MT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faizal Rahman.S.Sos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. Catri Sumaryati, M.M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maman Sudrajat, SP.; MSi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunaryo STP., M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaluddin Tani, S.Ap., M.M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heni Nuraeni, S.Pi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukur Basuki, SE., MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singgih Afifa Putra, S.Pi., M.Si. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fx. Eko Prihantoro, S.Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ruliwiyanti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Al Azhar, S.Pi., M.Si. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dadan Syarifudin.S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Rustam Aji </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janwar, S.T. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Yayat Sudrajat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Totok Tri Wibowo, MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutego.S.Pd.,S.T.,M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugianto, S.Pd., MT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Bagus Gunawan, S.Pd, M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Miftahu Soleh, M.Sc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariani Pakpahan., S.Pd., MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad Ichsan Panggabean, ST, SST, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Arif Firdausi Ananda, M. Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Saelungun Sinaga, MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutji Sudarini, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sugiarta, S.Pd, Mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukardi, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivai M. Simanjuntak, S.Pd., M.Pd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Aripin, S.Kom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deni Warsa Setiawan, S.Kom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardus, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aries Susanto Dewobroto, Se., M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juherman S.TP.,M.Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Maruasas Sianturi, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Gilbert Harianja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yopi Sopian, St., M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Farid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nopyan Nugraha,S.T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reni Nuraeni,ST.,M.Pd </t>
+  </si>
+  <si>
+    <t>npsn</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>instansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profillia Putri, S.Si, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Jahani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Nahdar, S.S., MAIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Aam Dayusnan, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Khoironi, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Nurdi Ibnu Wibowo, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. Djuharis Rasul, M.Ed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didi Kurniadi, M.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir. Etty Ekawati, MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad Husni, S.Pd, MT. </t>
+  </si>
+  <si>
+    <t>BBPPMPV BBL Medan</t>
+  </si>
+  <si>
+    <t>SMKS Pangudi Luhur Muntilan</t>
+  </si>
+  <si>
+    <t>SMkm 2 muntilan</t>
+  </si>
+  <si>
+    <t>SMKN 3 Tangerang</t>
+  </si>
+  <si>
+    <t>SMK TI Muhammadiyah Cikampek</t>
+  </si>
+  <si>
+    <t>SMK Dewi Sartika</t>
+  </si>
+  <si>
+    <t>SMK Ariya Metta</t>
+  </si>
+  <si>
+    <t>BBPPMPV Bidang Bisnis dan Pariwisata Depok</t>
+  </si>
+  <si>
+    <t>BBPPMPV BMTI Bandung</t>
+  </si>
+  <si>
+    <t>BPPMPV KPTK Gowa</t>
+  </si>
+  <si>
+    <t>Direktorat SMK</t>
+  </si>
+  <si>
+    <t>Praktisi dari Bandung</t>
+  </si>
+  <si>
+    <t>Politeknik TEDC Bandung</t>
+  </si>
+  <si>
+    <t>Cabang Dinas Pendidikan Wilayah VII</t>
+  </si>
+  <si>
+    <t>UNSIKA Karawang</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Jawa Barat CD Wil VII</t>
+  </si>
+  <si>
+    <t>SMK Negeri 3 Bandung</t>
+  </si>
+  <si>
+    <t>BBPPMPV Pertanian Cianjur</t>
+  </si>
+  <si>
+    <t>Politeknik TEDC</t>
+  </si>
+  <si>
+    <t>SMKN 1 Subang</t>
+  </si>
+  <si>
+    <t>BBPPMPV BOE Malang</t>
+  </si>
+  <si>
+    <t>KCD Wil 7 Disdik Prov Jabar</t>
+  </si>
+  <si>
+    <t>Cabang Dinas Pendidikan Wilayah X Provinsi Jawa Barat</t>
+  </si>
+  <si>
+    <t>Praktisi Cianjur</t>
+  </si>
+  <si>
+    <t>STT Atlas Nusantara Malang</t>
+  </si>
+  <si>
+    <t>BBPPMPV Seni dan Budaya Yogyakarta</t>
+  </si>
+  <si>
+    <t>SMK Negeri 11 Bandung</t>
+  </si>
+  <si>
+    <t>Praktisi Malang</t>
+  </si>
+  <si>
+    <t>Praktisi Pendidikan dari Malang</t>
+  </si>
+  <si>
+    <t>Dinas Pendidikan Prov Jawa Timur</t>
+  </si>
+  <si>
+    <t>SMK Negeri 3 Magelang</t>
+  </si>
+  <si>
+    <t>Praktisi Semarang</t>
+  </si>
+  <si>
+    <t>SMK Muhammadiyah 7 Gondanglegi</t>
+  </si>
+  <si>
+    <t>SMK TI Pembangunan Cimahi</t>
+  </si>
+  <si>
+    <t>BBPPMPV Bidang Bisnis Dan Pariwisata Depok</t>
+  </si>
+  <si>
+    <t>SMK PGRI 109 Tangerang</t>
+  </si>
+  <si>
+    <t>SMK Muhammadiyah Kajen</t>
+  </si>
+  <si>
+    <t>SMK Negeri 1 Sentani</t>
+  </si>
+  <si>
+    <t>Praktisi/STTAR Malang</t>
+  </si>
+  <si>
+    <t>Praktisi Pendidikan Dari Malang</t>
+  </si>
+  <si>
+    <t>Dr. Sulipan, M.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praktisi dari Malang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMK Negeri 2 Bisnis Manajemen Jayapura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinas Pendidikan Prov Jawa Timur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBPPMPV Pertanian Cianjur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praktisi Magelang </t>
+  </si>
+  <si>
     <t xml:space="preserve">Praktisi Pendidikan dari Malang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Yanto Permana, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Ajun, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBPPMPV Bidang Bisnis dan Pariwisata Depok </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eskawati Musyarofah Bunyamin, S.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direktorat SMK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelson Manurung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir. Dardiani, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBPPMPV Pertanian Cianjur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agus Sambodo, M.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBPPMPV Bidang Bisnis Dan Pariwisata Depok </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profillia Putri, S Si, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reni Nuraeni,St.,M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etty Sulistyawati S.Pd.MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Musana, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi dari Bandung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edy Rismunandar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurul Hayati, S.TI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPPMPV KPTK Gowa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Syahril Is, Mt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eru Wibowo, S.Sn., M.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBPPMPV Seni dan Budaya Yogyakarta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahyudin, S.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Dewi Sartika </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakti Gunawan, S.Pd, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iwan Abdul Rahman, M.Pd., MM. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Ariya Metta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Muji Rahayu, M.Ds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asrizal Amir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Rawung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwi Yunanto, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sito Mardowo, S.Sn, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Kartiman, M.Sn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wismanu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suwadi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moch. Widiyanto, S.Pd., MT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heru Subagiyo, S.Sn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandi Abdullah </t>
-  </si>
-  <si>
-    <t>SMKN 3 Yogyakarta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramelan, S.Pd, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMkm 2 muntilan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasriadi Masalam, Ph.D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santia Gardenia Widyaswari, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. M. Anas, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. R. Diyan K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Sulipan, M.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politeknik TEDC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Kuswara, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Sodikin Susaat, MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drh. Udi Pramono </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Amos Buranda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Nanang Yusuf Nurdin, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinas Pendidikan Jawa Barat CD Wil VII </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anita Widiawati, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Muhammad Fatori, MP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Ir. Widi Agustin, M.P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dra. Dwijanti,M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Agus Salim, M.Si. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dra. Wisnuwati.M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujiyono, SP, MP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Sumidi, MP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi Cianjur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir. Retna Irrawati M. Eng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinas Pendidikan Prov Jawa Timur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deden Suryanto, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN 1 Subang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrean Hartanu Wibowo, Sst.Par </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir. Tutik Nuryati, M.P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Sueb, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politeknik TEDC Bandung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Rochana, M. Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNSIKA Karawang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arief Susanto, S.Pd., Mm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Negeri 3 Bandung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dedy Hermawan, M. Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tresi Tiara Intania Fatimah, SE., M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK TI Pembangunan Cimahi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supardi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supriyadi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Frans Masse Pakpahan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hukmiah Arif, S.Kom, M.T </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iis Nurharyani, M.M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCD Wil 7 Disdik Prov Jabar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Catur Sunariadi, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Muhammadiyah 7 Gondanglegi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destilawaty, S.Pi, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanang Ahdiat, SP. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Yaya Zakaria Latif, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabang Dinas Pendidikan Wilayah VII </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Hadi Prasetyo, MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choesen Wawan Darmawan, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Agus Wahyudi, M.Eng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Winih Wicaksono, M.T. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imran, S. Kom., MT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Mansyur Syah, MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Wiyoto, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN 1 SUBANG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dra. Endang Sadbudhy Rahayu, MBA </t>
-  </si>
-  <si>
-    <t>Drs. Aam Dayusnan, M.Pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Syaiful Karim, MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STT Atlas Nusantara Malang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gita Mahardika Pamuji, Sst.Par., M.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Syarief, S.Pd., MT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faizal Rahman.S.Sos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK TI Muhammadiyah Cikampek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dra. Catri Sumaryati, M.M. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maman Sudrajat, SP.; MSi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunaryo STP., M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaluddin Tani, S.Ap., M.M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heni Nuraeni, S.Pi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukur Basuki, SE., MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singgih Afifa Putra, S.Pi., M.Si. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fx. Eko Prihantoro, S.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKS Pangudi Luhur Muntilan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Ruliwiyanti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi Semarang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Al Azhar, S.Pi., M.Si. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dadan Syarifudin.S.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Negeri 11 Bandung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Rustam Aji </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Muhammadiyah Kajen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janwar, S.T. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Yayat Sudrajat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN 3 Yogyakarta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Totok Tri Wibowo, MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutego.S.Pd.,S.T.,M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi Magelang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugianto, S.Pd., MT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H. Bagus Gunawan, S.Pd, M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi Malang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Miftahu Soleh, M.Sc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariani Pakpahan., S.Pd., MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammad Ichsan Panggabean, ST, SST, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Arif Firdausi Ananda, M. Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Saelungun Sinaga, MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutji Sudarini, S.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Negeri 3 Magelang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Sugiarta, S.Pd, Mm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukardi, S.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Negeri 2 Bisnis Manajemen Jayapura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivai M. Simanjuntak, S.Pd., M.Pd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad Aripin, S.Kom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deni Warsa Setiawan, S.Kom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMKN 3 Tangerang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardus, S.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aries Susanto Dewobroto, Se., M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK Negeri 1 Sentani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juherman S.TP.,M.Si </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Maruasas Sianturi, M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs. Gilbert Harianja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yopi Sopian, St., M.Pd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Farid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktisi dari Malang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nopyan Nugraha,S.T </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMK PGRI 109 Tangerang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reni Nuraeni,ST.,M.Pd </t>
-  </si>
-  <si>
-    <t>npsn</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>instansi</t>
   </si>
 </sst>
 </file>
@@ -896,43 +929,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F044FA92-5FAE-4B27-8E2C-5E080934C7D0}">
-  <dimension ref="A1:C471"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="C393" sqref="C393:C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10261412</v>
+        <v>20327603</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20112443</v>
+        <v>20401315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30401079</v>
+        <v>20404181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,5141 +991,5171 @@
         <v>69763291</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20401315</v>
+        <v>20522636</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20404181</v>
+        <v>20603253</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20327603</v>
+        <v>20613439</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20603253</v>
+        <v>50308344</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20613439</v>
+        <v>30100364</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20522636</v>
+        <v>30109724</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50308344</v>
+        <v>30303620</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30109724</v>
+        <v>10805046</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30100364</v>
+        <v>20214984</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30311402</v>
+        <v>20246375</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>30303620</v>
+        <v>69852822</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20214984</v>
+        <v>20231741</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20246375</v>
+        <v>20258507</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>69852822</v>
+        <v>20280609</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10805046</v>
+        <v>20325272</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20280609</v>
+        <v>20209208</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20258507</v>
+        <v>20212911</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20231741</v>
+        <v>20268221</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20325272</v>
+        <v>30400114</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20209208</v>
+        <v>60400380</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20212911</v>
+        <v>60401644</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20268221</v>
+        <v>20328962</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30400114</v>
+        <v>20401176</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>60401644</v>
+        <v>20401192</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>60400380</v>
+        <v>30401713</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20401176</v>
+        <v>10211592</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20401192</v>
+        <v>10212136</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20328962</v>
+        <v>10700287</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30401713</v>
+        <v>10703107</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10700287</v>
+        <v>20247197</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10703107</v>
+        <v>20525592</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10212136</v>
+        <v>20525629</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10211592</v>
+        <v>20568697</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20247197</v>
+        <v>20313042</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20525592</v>
+        <v>30102514</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20525629</v>
+        <v>30105521</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20568697</v>
+        <v>20214822</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20313042</v>
+        <v>20222170</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30102514</v>
+        <v>20223114</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>30105521</v>
+        <v>20229659</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20214822</v>
+        <v>20219159</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20229659</v>
+        <v>10807613</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20219159</v>
+        <v>10807614</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20223114</v>
+        <v>20262128</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20222170</v>
+        <v>10400262</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20262128</v>
+        <v>10404309</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10807613</v>
+        <v>30105230</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10807614</v>
+        <v>30407767</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>30105230</v>
+        <v>40401540</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10400262</v>
+        <v>40403566</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10404309</v>
+        <v>30401089</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>69934151</v>
+        <v>20279827</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20279827</v>
+        <v>20330334</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20330334</v>
+        <v>20542509</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20542509</v>
+        <v>69934151</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>30401089</v>
+        <v>69955278</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>30407767</v>
+        <v>20315656</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>40401540</v>
+        <v>20330119</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>40403566</v>
+        <v>20360301</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>69955278</v>
+        <v>40601491</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20315656</v>
+        <v>20200607</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20330119</v>
+        <v>20228539</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20360301</v>
+        <v>20244687</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>40601491</v>
+        <v>20517766</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20228539</v>
+        <v>20523758</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20200607</v>
+        <v>20566563</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20244687</v>
+        <v>50204465</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20523758</v>
+        <v>20217795</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20566563</v>
+        <v>30405247</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20517766</v>
+        <v>50301399</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>50204465</v>
+        <v>30311402</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20217795</v>
+        <v>20252398</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>30311402</v>
+        <v>20200606</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>30405247</v>
+        <v>20224614</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>50301399</v>
+        <v>20511015</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20200606</v>
+        <v>20521707</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20252398</v>
+        <v>20523757</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20224614</v>
+        <v>20533813</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20521707</v>
+        <v>20252030</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20523757</v>
+        <v>20252207</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20511015</v>
+        <v>20253861</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20533813</v>
+        <v>20255776</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20252207</v>
+        <v>20209201</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20255776</v>
+        <v>20209202</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20252030</v>
+        <v>20237434</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20253861</v>
+        <v>20244755</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20209201</v>
+        <v>20341574</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20209202</v>
+        <v>20352230</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20237434</v>
+        <v>69913857</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20244755</v>
+        <v>20507704</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20352230</v>
+        <v>20534398</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20341574</v>
+        <v>30401714</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>69913857</v>
+        <v>20214818</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20507704</v>
+        <v>20247201</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20534398</v>
+        <v>20532182</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>30401714</v>
+        <v>50204505</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20214818</v>
+        <v>20300693</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20247201</v>
+        <v>20303942</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20532182</v>
+        <v>20321425</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>50204505</v>
+        <v>69856657</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>69856657</v>
+        <v>20269696</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20303942</v>
+        <v>20328458</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20300693</v>
+        <v>20517742</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20321425</v>
+        <v>20607823</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>20607823</v>
+        <v>20537286</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>20269696</v>
+        <v>20606250</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>20328458</v>
+        <v>20607873</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>20517742</v>
+        <v>30405265</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>20607873</v>
+        <v>20306803</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>20606250</v>
+        <v>20517762</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>20537286</v>
+        <v>30402596</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>30405265</v>
+        <v>20339029</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20306803</v>
+        <v>20339040</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20517762</v>
+        <v>69968899</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>30402596</v>
+        <v>20314863</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>69968899</v>
+        <v>20330038</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>20339029</v>
+        <v>30105519</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>20339040</v>
+        <v>20232465</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>20232465</v>
+        <v>20223110</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>20314863</v>
+        <v>20237465</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>20330038</v>
+        <v>20252208</v>
       </c>
       <c r="B126" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>30105519</v>
+        <v>20328152</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>20223110</v>
+        <v>20511947</v>
       </c>
       <c r="B128" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>20252208</v>
+        <v>20227940</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>20237465</v>
+        <v>20228510</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>20328152</v>
+        <v>20279927</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>20511947</v>
+        <v>20329859</v>
       </c>
       <c r="B132" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>20227940</v>
+        <v>20223131</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>20228510</v>
+        <v>20253779</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>20279927</v>
+        <v>20574699</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>20329859</v>
+        <v>30107328</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20223131</v>
+        <v>20217366</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20253779</v>
+        <v>20500411</v>
       </c>
       <c r="B138" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>20574699</v>
+        <v>20517758</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>30107328</v>
+        <v>20307716</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>20217366</v>
+        <v>20101501</v>
       </c>
       <c r="B141" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>20307716</v>
+        <v>20615093</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>20500411</v>
+        <v>30203491</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>20517758</v>
+        <v>20600593</v>
       </c>
       <c r="B144" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>20600593</v>
+        <v>20362773</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>20615093</v>
+        <v>20528658</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>20101501</v>
+        <v>20533814</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>30203491</v>
+        <v>20276402</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>20276402</v>
+        <v>10211075</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>20362773</v>
+        <v>10211227</v>
       </c>
       <c r="B150" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C150" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>20528658</v>
+        <v>10807229</v>
       </c>
       <c r="B151" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>20533814</v>
+        <v>10814657</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C152" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>10814657</v>
+        <v>20504482</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>10807229</v>
+        <v>20517761</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>10211075</v>
+        <v>20541264</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>10211227</v>
+        <v>50103727</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>50103727</v>
+        <v>20246369</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>20504482</v>
+        <v>20323505</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>20541264</v>
+        <v>69754002</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>20517761</v>
+        <v>20210716</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>20246369</v>
+        <v>50100288</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>20210716</v>
+        <v>50100289</v>
       </c>
       <c r="B162" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>20323505</v>
+        <v>50305267</v>
       </c>
       <c r="B163" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>69754002</v>
+        <v>20312897</v>
       </c>
       <c r="B164" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>50100288</v>
+        <v>20313046</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>50100289</v>
+        <v>20402089</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>50305267</v>
+        <v>20402093</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>20402089</v>
+        <v>20214824</v>
       </c>
       <c r="B168" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>20402093</v>
+        <v>20326427</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>20312897</v>
+        <v>20508448</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>20313046</v>
+        <v>60728389</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>20214824</v>
+        <v>10211061</v>
       </c>
       <c r="B172" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>60728389</v>
+        <v>10211071</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>20326427</v>
+        <v>69880742</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>20508448</v>
+        <v>10260608</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>10505934</v>
+        <v>20221568</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C176" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>20534784</v>
+        <v>10260919</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C177" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>69880742</v>
+        <v>11000382</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>10260919</v>
+        <v>11003119</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>10260608</v>
+        <v>10505934</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>10211061</v>
+        <v>20534784</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C181" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>10211071</v>
+        <v>20549504</v>
       </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>20221568</v>
+        <v>69882371</v>
       </c>
       <c r="B183" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11000382</v>
+        <v>20312177</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11003119</v>
+        <v>20328116</v>
       </c>
       <c r="B185" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" t="s">
         <v>162</v>
-      </c>
-      <c r="C185" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>69882371</v>
+        <v>20328126</v>
       </c>
       <c r="B186" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>20312177</v>
+        <v>20402787</v>
       </c>
       <c r="B187" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C187" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>20328116</v>
+        <v>20402815</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>20549504</v>
+        <v>20216001</v>
       </c>
       <c r="B189" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>20402787</v>
+        <v>20614616</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>20402815</v>
+        <v>50205616</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>20216001</v>
+        <v>10496872</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>20328126</v>
+        <v>20209203</v>
       </c>
       <c r="B193" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>20614616</v>
+        <v>20212918</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>20209203</v>
+        <v>20238571</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>50205616</v>
+        <v>20267644</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>10496872</v>
+        <v>10259915</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>20267644</v>
+        <v>10260807</v>
       </c>
       <c r="B198" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C198" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>20212918</v>
+        <v>10304893</v>
       </c>
       <c r="B199" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C199" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>20238571</v>
+        <v>10308093</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C200" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>10259915</v>
+        <v>20503434</v>
       </c>
       <c r="B201" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>20503434</v>
+        <v>20554606</v>
       </c>
       <c r="B202" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>10304893</v>
+        <v>50205626</v>
       </c>
       <c r="B203" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="C203" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>10308093</v>
+        <v>50220438</v>
       </c>
       <c r="B204" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="C204" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>10260807</v>
+        <v>20206225</v>
       </c>
       <c r="B205" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C205" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>20206225</v>
+        <v>20237408</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>20554606</v>
+        <v>20247198</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>50220438</v>
+        <v>69965401</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>50205626</v>
+        <v>20268734</v>
       </c>
       <c r="B209" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>20268734</v>
+        <v>50103638</v>
       </c>
       <c r="B210" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>20237408</v>
+        <v>69752443</v>
       </c>
       <c r="B211" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>20247198</v>
+        <v>69967704</v>
       </c>
       <c r="B212" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>69965401</v>
+        <v>20302124</v>
       </c>
       <c r="B213" t="s">
         <v>82</v>
       </c>
       <c r="C213" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>50103638</v>
+        <v>20361045</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>69967704</v>
+        <v>20515438</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>69752443</v>
+        <v>20547845</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>20302124</v>
+        <v>20253319</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>20253319</v>
+        <v>20329527</v>
       </c>
       <c r="B218" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C218" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>20361045</v>
+        <v>20500424</v>
       </c>
       <c r="B219" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C219" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>20515438</v>
+        <v>20554359</v>
       </c>
       <c r="B220" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>20547845</v>
+        <v>10601343</v>
       </c>
       <c r="B221" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C221" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>20329527</v>
+        <v>10646355</v>
       </c>
       <c r="B222" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>20500424</v>
+        <v>20327586</v>
       </c>
       <c r="B223" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>20554359</v>
+        <v>20217367</v>
       </c>
       <c r="B224" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>10601343</v>
+        <v>20251887</v>
       </c>
       <c r="B225" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C225" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>10646355</v>
+        <v>20584049</v>
       </c>
       <c r="B226" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>20217367</v>
+        <v>69990904</v>
       </c>
       <c r="B227" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>20327586</v>
+        <v>20208396</v>
       </c>
       <c r="B228" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C228" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>20208396</v>
+        <v>20212908</v>
       </c>
       <c r="B229" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>20251887</v>
+        <v>20219144</v>
       </c>
       <c r="B230" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>20584049</v>
+        <v>20224136</v>
       </c>
       <c r="B231" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>69990904</v>
+        <v>20310439</v>
       </c>
       <c r="B232" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>20212908</v>
+        <v>20310441</v>
       </c>
       <c r="B233" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C233" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>20219144</v>
+        <v>20403275</v>
       </c>
       <c r="B234" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C234" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>20224136</v>
+        <v>20404182</v>
       </c>
       <c r="B235" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C235" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>20310439</v>
+        <v>20519278</v>
       </c>
       <c r="B236" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>20403275</v>
+        <v>20616368</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>20404182</v>
+        <v>20622268</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>20310441</v>
+        <v>30103487</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>20519278</v>
+        <v>20320251</v>
       </c>
       <c r="B240" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>20622268</v>
+        <v>20339165</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>20616368</v>
+        <v>20401194</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C242" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>20320251</v>
+        <v>20507700</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>30103487</v>
+        <v>20307703</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>20401194</v>
+        <v>20307715</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>20307703</v>
+        <v>20400432</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>20339165</v>
+        <v>20400446</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20507700</v>
+        <v>20616038</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>20616038</v>
+        <v>20607491</v>
       </c>
       <c r="B249" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>20400432</v>
+        <v>20614509</v>
       </c>
       <c r="B250" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>20400446</v>
+        <v>30304604</v>
       </c>
       <c r="B251" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>20307715</v>
+        <v>69772584</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>20607491</v>
+        <v>20103792</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>20614509</v>
+        <v>10503769</v>
       </c>
       <c r="B254" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>69772584</v>
+        <v>20360275</v>
       </c>
       <c r="B255" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>20103792</v>
+        <v>69759278</v>
       </c>
       <c r="B256" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>10503769</v>
+        <v>20501715</v>
       </c>
       <c r="B257" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>30304604</v>
+        <v>20534783</v>
       </c>
       <c r="B258" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>20360275</v>
+        <v>50304991</v>
       </c>
       <c r="B259" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>20501715</v>
+        <v>20532198</v>
       </c>
       <c r="B260" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>69759278</v>
+        <v>10105338</v>
       </c>
       <c r="B261" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C261" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>10105338</v>
+        <v>20328132</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20534783</v>
+        <v>69773566</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20532198</v>
+        <v>20309531</v>
       </c>
       <c r="B264" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>50304991</v>
+        <v>20326425</v>
       </c>
       <c r="B265" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20309531</v>
+        <v>20548745</v>
       </c>
       <c r="B266" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C266" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>20328132</v>
+        <v>20314900</v>
       </c>
       <c r="B267" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C267" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>69773566</v>
+        <v>20325252</v>
       </c>
       <c r="B268" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C268" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20314900</v>
+        <v>20517759</v>
       </c>
       <c r="B269" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C269" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20326425</v>
+        <v>20534176</v>
       </c>
       <c r="B270" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>20548745</v>
+        <v>20324227</v>
       </c>
       <c r="B271" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C271" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>20324227</v>
+        <v>20103659</v>
       </c>
       <c r="B272" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20325252</v>
+        <v>20340348</v>
       </c>
       <c r="B273" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20517759</v>
+        <v>69880817</v>
       </c>
       <c r="B274" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C274" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20534176</v>
+        <v>20328945</v>
       </c>
       <c r="B275" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C275" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20103659</v>
+        <v>20328971</v>
       </c>
       <c r="B276" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>69880817</v>
+        <v>20401137</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20340348</v>
+        <v>20401304</v>
       </c>
       <c r="B278" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C278" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>20328945</v>
+        <v>20330118</v>
       </c>
       <c r="B279" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C279" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20401137</v>
+        <v>20341390</v>
       </c>
       <c r="B280" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20401304</v>
+        <v>40103207</v>
       </c>
       <c r="B281" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20330118</v>
+        <v>40314105</v>
       </c>
       <c r="B282" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>20328971</v>
+        <v>20217802</v>
       </c>
       <c r="B283" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>20217802</v>
+        <v>20217803</v>
       </c>
       <c r="B284" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C284" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>20341390</v>
+        <v>20219145</v>
       </c>
       <c r="B285" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C285" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>40314105</v>
+        <v>69734356</v>
       </c>
       <c r="B286" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>40103207</v>
+        <v>11000439</v>
       </c>
       <c r="B287" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C287" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>20217803</v>
+        <v>69761931</v>
       </c>
       <c r="B288" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C288" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>69734356</v>
+        <v>69849370</v>
       </c>
       <c r="B289" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C289" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20219145</v>
+        <v>60726235</v>
       </c>
       <c r="B290" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>11000439</v>
+        <v>20217038</v>
       </c>
       <c r="B291" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>20217038</v>
+        <v>30304270</v>
       </c>
       <c r="B292" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>69849370</v>
+        <v>30304520</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>60726235</v>
+        <v>69877402</v>
       </c>
       <c r="B294" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>69761931</v>
+        <v>20301899</v>
       </c>
       <c r="B295" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C295" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>20622306</v>
+        <v>20330454</v>
       </c>
       <c r="B296" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>20231416</v>
+        <v>20622306</v>
       </c>
       <c r="B297" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>20232491</v>
+        <v>20231416</v>
       </c>
       <c r="B298" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C298" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>20275815</v>
+        <v>20232491</v>
       </c>
       <c r="B299" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>69877402</v>
+        <v>20235643</v>
       </c>
       <c r="B300" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>20235643</v>
+        <v>20275815</v>
       </c>
       <c r="B301" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>20301899</v>
+        <v>20321847</v>
       </c>
       <c r="B302" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>20330454</v>
+        <v>20341017</v>
       </c>
       <c r="B303" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20321847</v>
+        <v>20546877</v>
       </c>
       <c r="B304" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C304" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>30304270</v>
+        <v>20584033</v>
       </c>
       <c r="B305" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>30304520</v>
+        <v>20214797</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>20214797</v>
+        <v>20244688</v>
       </c>
       <c r="B307" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C307" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>20341017</v>
+        <v>20317482</v>
       </c>
       <c r="B308" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C308" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20584033</v>
+        <v>20352397</v>
       </c>
       <c r="B309" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C309" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>20546877</v>
+        <v>10804184</v>
       </c>
       <c r="B310" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C310" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>20244688</v>
+        <v>10814962</v>
       </c>
       <c r="B311" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C311" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>20317482</v>
+        <v>69830643</v>
       </c>
       <c r="B312" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C312" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>20352397</v>
+        <v>20319296</v>
       </c>
       <c r="B313" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>10804184</v>
+        <v>40310796</v>
       </c>
       <c r="B314" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>69830643</v>
+        <v>60725432</v>
       </c>
       <c r="B315" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C315" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>20319296</v>
+        <v>69756197</v>
       </c>
       <c r="B316" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C316" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>10814962</v>
+        <v>20311044</v>
       </c>
       <c r="B317" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C317" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>60725432</v>
+        <v>20360536</v>
       </c>
       <c r="B318" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C318" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>69756197</v>
+        <v>40601490</v>
       </c>
       <c r="B319" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C319" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>20311044</v>
+        <v>30304269</v>
       </c>
       <c r="B320" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>40310796</v>
+        <v>20540110</v>
       </c>
       <c r="B321" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C321" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>20360536</v>
+        <v>30401508</v>
       </c>
       <c r="B322" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C322" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>20540110</v>
+        <v>30401516</v>
       </c>
       <c r="B323" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C323" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>30304269</v>
+        <v>30409918</v>
       </c>
       <c r="B324" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C324" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>40601490</v>
+        <v>10203547</v>
       </c>
       <c r="B325" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C325" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>30401508</v>
+        <v>10220602</v>
       </c>
       <c r="B326" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>30401516</v>
+        <v>10303507</v>
       </c>
       <c r="B327" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>30409918</v>
+        <v>10303913</v>
       </c>
       <c r="B328" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>10203547</v>
+        <v>30304268</v>
       </c>
       <c r="B329" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>30304268</v>
+        <v>30304286</v>
       </c>
       <c r="B330" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="C330" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>10303507</v>
+        <v>69767776</v>
       </c>
       <c r="B331" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>10303913</v>
+        <v>20554703</v>
       </c>
       <c r="B332" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C332" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>10220602</v>
+        <v>50205416</v>
       </c>
       <c r="B333" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C333" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>69767776</v>
+        <v>50220769</v>
       </c>
       <c r="B334" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C334" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>20554703</v>
+        <v>20300690</v>
       </c>
       <c r="B335" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C335" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>30304286</v>
+        <v>40103059</v>
       </c>
       <c r="B336" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C336" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>50220769</v>
+        <v>50304778</v>
       </c>
       <c r="B337" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C337" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>50205416</v>
+        <v>50304779</v>
       </c>
       <c r="B338" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C338" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>69900388</v>
+        <v>10214028</v>
       </c>
       <c r="B339" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C339" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>20300690</v>
+        <v>10259665</v>
       </c>
       <c r="B340" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C340" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>50304779</v>
+        <v>10402106</v>
       </c>
       <c r="B341" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>50304778</v>
+        <v>10494574</v>
       </c>
       <c r="B342" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>40103059</v>
+        <v>20500423</v>
       </c>
       <c r="B343" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>10214028</v>
+        <v>20519149</v>
       </c>
       <c r="B344" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C344" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>20500423</v>
+        <v>20533816</v>
       </c>
       <c r="B345" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C345" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>10494574</v>
+        <v>69827649</v>
       </c>
       <c r="B346" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C346" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>10402106</v>
+        <v>20409725</v>
       </c>
       <c r="B347" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C347" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>10259665</v>
+        <v>10211092</v>
       </c>
       <c r="B348" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>20409725</v>
+        <v>10494319</v>
       </c>
       <c r="B349" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>20519149</v>
+        <v>10495604</v>
       </c>
       <c r="B350" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>69827649</v>
+        <v>10211253</v>
       </c>
       <c r="B351" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>20533816</v>
+        <v>20523754</v>
       </c>
       <c r="B352" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C352" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>10211092</v>
+        <v>20549236</v>
       </c>
       <c r="B353" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C353" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>20523754</v>
+        <v>20554381</v>
       </c>
       <c r="B354" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C354" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>10494319</v>
+        <v>20529957</v>
       </c>
       <c r="B355" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C355" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>10495604</v>
+        <v>20308417</v>
       </c>
       <c r="B356" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="C356" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>10211253</v>
+        <v>20308436</v>
       </c>
       <c r="B357" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="C357" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>20308417</v>
+        <v>20310436</v>
       </c>
       <c r="B358" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C358" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>20549236</v>
+        <v>69727436</v>
       </c>
       <c r="B359" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C359" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>20554381</v>
+        <v>20331126</v>
       </c>
       <c r="B360" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>20529957</v>
+        <v>20341442</v>
       </c>
       <c r="B361" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C361" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>69727436</v>
+        <v>69946696</v>
       </c>
       <c r="B362" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C362" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>20308436</v>
+        <v>69948040</v>
       </c>
       <c r="B363" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>20331126</v>
+        <v>10210766</v>
       </c>
       <c r="B364" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>20310436</v>
+        <v>10259305</v>
       </c>
       <c r="B365" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>69946696</v>
+        <v>10812426</v>
       </c>
       <c r="B366" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>69948040</v>
+        <v>20605114</v>
       </c>
       <c r="B367" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C367" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>20341442</v>
+        <v>50203317</v>
       </c>
       <c r="B368" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C368" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>10210766</v>
+        <v>50219548</v>
       </c>
       <c r="B369" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C369" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>20605114</v>
+        <v>40307845</v>
       </c>
       <c r="B370" t="s">
         <v>20</v>
       </c>
       <c r="C370" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>10812426</v>
+        <v>40500380</v>
       </c>
       <c r="B371" t="s">
         <v>20</v>
       </c>
       <c r="C371" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>10259305</v>
+        <v>40501064</v>
       </c>
       <c r="B372" t="s">
         <v>20</v>
       </c>
       <c r="C372" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>50219548</v>
+        <v>40501858</v>
       </c>
       <c r="B373" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C373" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>50203317</v>
+        <v>20606819</v>
       </c>
       <c r="B374" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>40307845</v>
+        <v>20100294</v>
       </c>
       <c r="B375" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C375" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>20606819</v>
+        <v>20607834</v>
       </c>
       <c r="B376" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C376" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>40500380</v>
+        <v>30107398</v>
       </c>
       <c r="B377" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C377" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>40501858</v>
+        <v>10300825</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C378" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>40501064</v>
+        <v>10310877</v>
       </c>
       <c r="B379" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C379" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>20607834</v>
+        <v>20328981</v>
       </c>
       <c r="B380" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C380" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>20100294</v>
+        <v>20100166</v>
       </c>
       <c r="B381" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>30107398</v>
+        <v>20607837</v>
       </c>
       <c r="B382" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C382" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>10300825</v>
+        <v>60729364</v>
       </c>
       <c r="B383" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>20100166</v>
+        <v>69756184</v>
       </c>
       <c r="B384" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C384" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>20328981</v>
+        <v>10205190</v>
       </c>
       <c r="B385" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C385" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>10310877</v>
+        <v>10205204</v>
       </c>
       <c r="B386" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C386" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>20607837</v>
+        <v>10403923</v>
       </c>
       <c r="B387" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C387" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>60729364</v>
+        <v>10494620</v>
       </c>
       <c r="B388" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C388" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>69756184</v>
+        <v>20533643</v>
       </c>
       <c r="B389" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C389" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>10205190</v>
+        <v>20538340</v>
       </c>
       <c r="B390" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C390" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>20533643</v>
+        <v>20539814</v>
       </c>
       <c r="B391" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C391" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>10403923</v>
+        <v>30109301</v>
       </c>
       <c r="B392" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C392" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>10494620</v>
+        <v>20328108</v>
       </c>
       <c r="B393" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C393" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>10205204</v>
+        <v>20360363</v>
       </c>
       <c r="B394" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C394" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>20328108</v>
+        <v>20403285</v>
       </c>
       <c r="B395" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C395" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>20538340</v>
+        <v>20212921</v>
       </c>
       <c r="B396" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C396" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>20539814</v>
+        <v>30402083</v>
       </c>
       <c r="B397" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C397" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>30109301</v>
+        <v>40500181</v>
       </c>
       <c r="B398" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>20403285</v>
+        <v>40501682</v>
       </c>
       <c r="B399" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C399" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>20212921</v>
+        <v>30401513</v>
       </c>
       <c r="B400" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C400" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>20360363</v>
+        <v>10220307</v>
       </c>
       <c r="B401" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C401" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>30402083</v>
+        <v>10603684</v>
       </c>
       <c r="B402" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C402" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>40500181</v>
+        <v>10609726</v>
       </c>
       <c r="B403" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C403" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>40501682</v>
+        <v>10105626</v>
       </c>
       <c r="B404" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C404" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>30401513</v>
+        <v>20324226</v>
       </c>
       <c r="B405" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C405" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>10220307</v>
+        <v>20341010</v>
       </c>
       <c r="B406" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C406" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>10105626</v>
+        <v>40604625</v>
       </c>
       <c r="B407" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C407" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>20324226</v>
+        <v>50204716</v>
       </c>
       <c r="B408" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C408" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>10603684</v>
+        <v>20338281</v>
       </c>
       <c r="B409" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C409" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>10609726</v>
+        <v>20400449</v>
       </c>
       <c r="B410" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C410" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>20341010</v>
+        <v>20411873</v>
       </c>
       <c r="B411" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="C411" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>20338281</v>
+        <v>69947441</v>
       </c>
       <c r="B412" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="C412" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>50204716</v>
+        <v>20506249</v>
       </c>
       <c r="B413" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>40604625</v>
+        <v>20549029</v>
       </c>
       <c r="B414" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>20400449</v>
+        <v>50105503</v>
       </c>
       <c r="B415" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>20411873</v>
+        <v>69899478</v>
       </c>
       <c r="B416" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>69947441</v>
+        <v>30401782</v>
       </c>
       <c r="B417" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C417" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>20506249</v>
+        <v>60300189</v>
       </c>
       <c r="B418" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C418" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>50105503</v>
+        <v>60301059</v>
       </c>
       <c r="B419" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C419" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>69899478</v>
+        <v>20511013</v>
       </c>
       <c r="B420" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C420" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>20549029</v>
+        <v>50302299</v>
       </c>
       <c r="B421" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C421" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>30401782</v>
+        <v>69775283</v>
       </c>
       <c r="B422" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C422" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>20511013</v>
+        <v>20330307</v>
       </c>
       <c r="B423" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C423" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>60300189</v>
+        <v>20339066</v>
       </c>
       <c r="B424" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C424" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>60301059</v>
+        <v>69851465</v>
       </c>
       <c r="B425" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C425" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>20330307</v>
+        <v>69862566</v>
       </c>
       <c r="B426" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C426" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>69775283</v>
+        <v>20501720</v>
       </c>
       <c r="B427" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C427" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>50302299</v>
+        <v>20570902</v>
       </c>
       <c r="B428" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C428" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>20339066</v>
+        <v>50304992</v>
       </c>
       <c r="B429" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C429" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>69851465</v>
+        <v>69888491</v>
       </c>
       <c r="B430" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C430" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>20501720</v>
+        <v>20216003</v>
       </c>
       <c r="B431" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C431" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>69862566</v>
+        <v>20237410</v>
       </c>
       <c r="B432" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C432" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>20216003</v>
+        <v>20360896</v>
       </c>
       <c r="B433" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C433" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>20570902</v>
+        <v>20361510</v>
       </c>
       <c r="B434" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C434" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>50304992</v>
+        <v>20341206</v>
       </c>
       <c r="B435" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C435" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>69888491</v>
+        <v>20523760</v>
       </c>
       <c r="B436" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C436" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>20237410</v>
+        <v>20548802</v>
       </c>
       <c r="B437" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C437" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>20360896</v>
+        <v>20328460</v>
       </c>
       <c r="B438" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C438" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>20361510</v>
+        <v>20505033</v>
       </c>
       <c r="B439" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C439" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>20341206</v>
+        <v>20506248</v>
       </c>
       <c r="B440" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C440" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>20328460</v>
+        <v>30105216</v>
       </c>
       <c r="B441" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C441" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>20523760</v>
+        <v>60102779</v>
       </c>
       <c r="B442" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C442" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>20548802</v>
+        <v>69756191</v>
       </c>
       <c r="B443" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C443" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>20506248</v>
+        <v>30102474</v>
       </c>
       <c r="B444" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C444" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>20505033</v>
+        <v>20402840</v>
       </c>
       <c r="B445" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="C445" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>30105216</v>
+        <v>20553265</v>
       </c>
       <c r="B446" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="C446" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>20402840</v>
+        <v>69930561</v>
       </c>
       <c r="B447" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C447" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>69756191</v>
+        <v>20215998</v>
       </c>
       <c r="B448" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C448" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>30102474</v>
+        <v>20216007</v>
       </c>
       <c r="B449" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C449" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>60102779</v>
+        <v>20554341</v>
       </c>
       <c r="B450" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C450" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>20215998</v>
+        <v>30108420</v>
       </c>
       <c r="B451" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C451" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>20553265</v>
+        <v>10102277</v>
       </c>
       <c r="B452" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C452" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>69930561</v>
+        <v>10102278</v>
       </c>
       <c r="B453" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C453" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>10102277</v>
+        <v>10214027</v>
       </c>
       <c r="B454" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>20216007</v>
+        <v>10261695</v>
       </c>
       <c r="B455" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>20554341</v>
+        <v>10700642</v>
       </c>
       <c r="B456" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C456" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>30108420</v>
+        <v>10703236</v>
       </c>
       <c r="B457" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C457" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>10102278</v>
+        <v>20101648</v>
       </c>
       <c r="B458" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C458" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>10700642</v>
+        <v>20328153</v>
       </c>
       <c r="B459" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C459" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>10214027</v>
+        <v>20402133</v>
       </c>
       <c r="B460" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C460" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>10261695</v>
+        <v>20407419</v>
       </c>
       <c r="B461" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C461" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>10703236</v>
+        <v>20525627</v>
       </c>
       <c r="B462" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C462" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>20101648</v>
+        <v>40203629</v>
       </c>
       <c r="B463" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C463" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>20328153</v>
+        <v>40300604</v>
       </c>
       <c r="B464" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C464" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>20402133</v>
+        <v>60101983</v>
       </c>
       <c r="B465" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C465" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>20407419</v>
+        <v>60105436</v>
       </c>
       <c r="B466" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C466" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>20525627</v>
-      </c>
-      <c r="B467" t="s">
-        <v>47</v>
-      </c>
-      <c r="C467" t="s">
-        <v>14</v>
+        <v>20400384</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>40203629</v>
-      </c>
-      <c r="B468" t="s">
-        <v>47</v>
-      </c>
-      <c r="C468" t="s">
-        <v>14</v>
+        <v>20400383</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>60105436</v>
-      </c>
-      <c r="B469" t="s">
-        <v>164</v>
-      </c>
-      <c r="C469" t="s">
-        <v>32</v>
+        <v>20328949</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>60101983</v>
-      </c>
-      <c r="B470" t="s">
-        <v>164</v>
-      </c>
-      <c r="C470" t="s">
-        <v>32</v>
+        <v>20320252</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>40300604</v>
-      </c>
-      <c r="B471" t="s">
-        <v>164</v>
-      </c>
-      <c r="C471" t="s">
-        <v>32</v>
+        <v>30401079</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>20112443</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>69900388</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>69947173</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>20325261</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>20340792</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>40202941</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>20328453</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>20271204</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>20401317</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>20265292</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>10261412</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>10604624</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C471">
-    <sortCondition ref="B2:B471"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C483">
+    <sortCondition ref="B2:B483"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
